--- a/excel/chiG.xlsx
+++ b/excel/chiG.xlsx
@@ -572,7 +572,7 @@
   <dimension ref="B2:Q89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.6640625" defaultRowHeight="14"/>

--- a/excel/chiG.xlsx
+++ b/excel/chiG.xlsx
@@ -9,8 +9,16 @@
   <sheets>
     <sheet name="chi &amp; G" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="130407"/>
+  <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -124,6 +132,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="6">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -180,6 +196,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -571,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="B2:Q89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.6640625" defaultRowHeight="14"/>
@@ -679,9 +703,9 @@
       <c r="P4" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" t="e">
-        <f ca="1">_1__xlfn.CHISQ.D(Q2,Q3)</f>
-        <v>#NAME?</v>
+      <c r="Q4">
+        <f>_1__xlfn.CHISQ.D(Q2,Q3)</f>
+        <v>0.13233520738216506</v>
       </c>
     </row>
     <row r="5" spans="2:17">
@@ -751,9 +775,9 @@
       <c r="P7" t="s">
         <v>20</v>
       </c>
-      <c r="Q7" t="e">
-        <f ca="1">_1__xlfn.CHISQ.D(Q5,Q3)</f>
-        <v>#NAME?</v>
+      <c r="Q7">
+        <f>_1__xlfn.CHISQ.D(Q5,Q3)</f>
+        <v>0.12245159634003205</v>
       </c>
     </row>
     <row r="8" spans="2:17">
@@ -1906,7 +1930,7 @@
       </c>
       <c r="D43">
         <f t="shared" ref="D43:L43" si="11">D3*(LN(D3/D15))</f>
-        <v>1.5155564825180996</v>
+        <v>1.5155564825180998</v>
       </c>
       <c r="E43">
         <f t="shared" si="11"/>
@@ -1998,7 +2022,7 @@
       </c>
       <c r="D45">
         <f t="shared" si="13"/>
-        <v>1.8380677599415032</v>
+        <v>1.838067759941503</v>
       </c>
       <c r="E45">
         <f t="shared" si="13"/>
